--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1172983.223845609</v>
+        <v>-1173695.525668653</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058539</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1215,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>42.47058313333423</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
-        <v>91.22256761031915</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929892</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538026</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675133</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.748199672699</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416382</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>178.6309084758261</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>15.09987451192719</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>13.4425271669364</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242236</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382069</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233433</v>
+        <v>62.50065676233439</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394368</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640269</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.2360219809577</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.2816970025662</v>
+        <v>25.28169700256626</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311265</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725509</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154977</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138199</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362674</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517461</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.9930086611005</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,67 +1613,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F14" t="n">
-        <v>151.5420071154975</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>166.0289796675928</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="H14" t="n">
-        <v>168.8731344554827</v>
-      </c>
-      <c r="I14" t="n">
-        <v>62.86150506240813</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>159.748199672699</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298006</v>
+        <v>9.36988737129812</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>53.5502412102801</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.4425271669364</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242236</v>
+        <v>36.82265945242248</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382069</v>
+        <v>59.07980534382081</v>
       </c>
       <c r="V15" t="n">
-        <v>188.4979333192472</v>
+        <v>62.50065676233444</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394368</v>
+        <v>88.55631942394379</v>
       </c>
       <c r="X15" t="n">
-        <v>188.4979333192472</v>
+        <v>39.1646502864028</v>
       </c>
       <c r="Y15" t="n">
-        <v>147.2557142284189</v>
+        <v>45.23602198095782</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.2816970025662</v>
+        <v>25.28169700256632</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311265</v>
+        <v>57.28978021311276</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725509</v>
+        <v>45.61329429725521</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154977</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138199</v>
+        <v>66.9607510313821</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362674</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517461</v>
+        <v>43.77119125517473</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.9930086611005</v>
+        <v>38.99300866110062</v>
       </c>
     </row>
     <row r="17">
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216753</v>
       </c>
       <c r="W17" t="n">
         <v>40.44879289878247</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772145</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y17" t="n">
         <v>84.83789649146547</v>
@@ -1926,25 +1926,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>129.1140633332225</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>57.24610774185529</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>53.0990755957114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>30.01159590942878</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="T21" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2397,28 +2397,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>126.281030000153</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>121.1198410906892</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2634,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>44.49774663357827</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489319</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
         <v>23.74331897288765</v>
       </c>
       <c r="V27" t="n">
-        <v>163.3893330396667</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>53.21983305301063</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147503</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444716</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818295</v>
+        <v>8.981130875818252</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864874</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8008168944489</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.58566116773265</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489319</v>
+        <v>1.486173081489263</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288765</v>
+        <v>23.74331897288759</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>95.3920404314436</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301063</v>
+        <v>53.21983305301057</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024657</v>
+        <v>9.8995356100246</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217955</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632199</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.1718064445646</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044889</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533431</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241512</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167402</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.774779986968</v>
+        <v>159.7747799869681</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903135</v>
+        <v>135.8930369903136</v>
       </c>
       <c r="D32" t="n">
-        <v>123.459699251362</v>
+        <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.1664516707708</v>
+        <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491482</v>
+        <v>188.8867892491483</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717832</v>
+        <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176852</v>
+        <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461073</v>
+        <v>26.69730882461081</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758286</v>
+        <v>13.20453416758295</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008953927</v>
+        <v>8.153421008954041</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178444</v>
+        <v>35.83808110178452</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182867</v>
+        <v>106.5673232182868</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349016</v>
+        <v>123.5840034349017</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4702539038408</v>
+        <v>145.4702539038409</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275846</v>
+        <v>167.9731070275847</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.83554276745853</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146249652</v>
+        <v>0.6584632146250515</v>
       </c>
       <c r="U33" t="n">
-        <v>229.5476343269879</v>
+        <v>22.91560910602338</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>26.33646052453702</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>52.39212318614636</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605292</v>
+        <v>3.000454048605377</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160304</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531525</v>
+        <v>21.12558397531534</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457695</v>
+        <v>9.449098059457782</v>
       </c>
       <c r="U34" t="n">
-        <v>74.3440965777003</v>
+        <v>74.34409657770038</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358459</v>
+        <v>30.79655479358468</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847001</v>
+        <v>75.9982466984701</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377216</v>
+        <v>7.606995017377301</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303106</v>
+        <v>2.828812423303191</v>
       </c>
     </row>
     <row r="35">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>141.9717047821483</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7355245857741</v>
+        <v>41.42125554083271</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,19 +3387,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>101.3573900399722</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4608093700287</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>75.19250856120908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3743,13 +3743,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675127</v>
+        <v>96.76239042675124</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G41" t="n">
         <v>177.8284037471725</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173735</v>
+        <v>9.14077227717371</v>
       </c>
       <c r="V41" t="n">
-        <v>79.870014393676</v>
+        <v>79.87001439367597</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029087</v>
+        <v>96.88669461029085</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="42">
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>77.80529220789268</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>46.0812048357364</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153558</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308959</v>
+        <v>47.64678775308956</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973889</v>
+        <v>4.099245968973861</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385931</v>
+        <v>49.30093787385928</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675127</v>
+        <v>96.76239042675124</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G44" t="n">
         <v>177.8284037471725</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173735</v>
+        <v>9.14077227717371</v>
       </c>
       <c r="V44" t="n">
-        <v>79.870014393676</v>
+        <v>79.87001439367597</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029087</v>
+        <v>96.88669461029085</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="45">
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.432026438532299</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>46.9187702549696</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153558</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308959</v>
+        <v>47.64678775308956</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973889</v>
+        <v>4.099245968973861</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385931</v>
+        <v>49.30093787385928</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4820,34 +4820,34 @@
         <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4863,13 +4863,13 @@
         <v>9.565433267111001</v>
       </c>
       <c r="D9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="E9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="F9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="G9" t="n">
         <v>6.333867974168094</v>
@@ -4884,13 +4884,13 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="L9" t="n">
-        <v>6.590454258427762</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="M9" t="n">
-        <v>9.629741416440567</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
         <v>9.629741416440567</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.2238423527308</v>
+        <v>711.0921543544289</v>
       </c>
       <c r="C11" t="n">
-        <v>107.2238423527308</v>
+        <v>537.2969692755289</v>
       </c>
       <c r="D11" t="n">
-        <v>107.2238423527308</v>
+        <v>376.0607112056709</v>
       </c>
       <c r="E11" t="n">
-        <v>15.07983466553977</v>
+        <v>376.0607112056709</v>
       </c>
       <c r="F11" t="n">
-        <v>15.07983466553977</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="G11" t="n">
-        <v>15.07983466553977</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="H11" t="n">
         <v>15.07983466553977</v>
@@ -5039,52 +5039,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021289</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K11" t="n">
-        <v>285.1396746888282</v>
+        <v>184.786695952239</v>
       </c>
       <c r="L11" t="n">
-        <v>331.8605171695883</v>
+        <v>371.3996499382937</v>
       </c>
       <c r="M11" t="n">
-        <v>412.7224162565356</v>
+        <v>483.0174765646693</v>
       </c>
       <c r="N11" t="n">
-        <v>599.3353702425903</v>
+        <v>558.3453697003616</v>
       </c>
       <c r="O11" t="n">
-        <v>633.5560049352581</v>
+        <v>592.5660043930294</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324992</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q11" t="n">
         <v>753.9917332769887</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049696</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550906</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="T11" t="n">
-        <v>642.4567546088765</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="U11" t="n">
-        <v>642.4567546088765</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="V11" t="n">
-        <v>642.4567546088765</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="W11" t="n">
-        <v>481.0949367576654</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="X11" t="n">
-        <v>297.6257952004553</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Y11" t="n">
-        <v>107.2238423527308</v>
+        <v>753.9917332769887</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>398.7673935891312</v>
+        <v>92.80198847071944</v>
       </c>
       <c r="C12" t="n">
-        <v>218.3321325024382</v>
+        <v>83.33745577243856</v>
       </c>
       <c r="D12" t="n">
-        <v>218.3321325024382</v>
+        <v>83.33745577243856</v>
       </c>
       <c r="E12" t="n">
-        <v>218.3321325024382</v>
+        <v>83.33745577243856</v>
       </c>
       <c r="F12" t="n">
-        <v>218.3321325024382</v>
+        <v>83.33745577243856</v>
       </c>
       <c r="G12" t="n">
-        <v>68.0850572755424</v>
+        <v>83.33745577243856</v>
       </c>
       <c r="H12" t="n">
-        <v>68.0850572755424</v>
+        <v>83.33745577243856</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L12" t="n">
         <v>170.3760798097942</v>
@@ -5139,31 +5139,31 @@
         <v>753.9917332769887</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596543</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596543</v>
+        <v>617.9111264193346</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4745786900215</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="T12" t="n">
-        <v>696.2799731825241</v>
+        <v>390.3145680641127</v>
       </c>
       <c r="U12" t="n">
-        <v>636.6034021281598</v>
+        <v>330.6379970097483</v>
       </c>
       <c r="V12" t="n">
-        <v>573.4714256005494</v>
+        <v>267.5060204821378</v>
       </c>
       <c r="W12" t="n">
-        <v>484.0205978995962</v>
+        <v>178.0551927811846</v>
       </c>
       <c r="X12" t="n">
-        <v>444.4603450850481</v>
+        <v>138.4949399666364</v>
       </c>
       <c r="Y12" t="n">
-        <v>398.7673935891312</v>
+        <v>92.80198847071944</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.6058647187586</v>
+        <v>15.60586471875854</v>
       </c>
       <c r="C13" t="n">
-        <v>27.18003706804321</v>
+        <v>27.18003706804309</v>
       </c>
       <c r="D13" t="n">
-        <v>59.81599483137684</v>
+        <v>59.81599483137667</v>
       </c>
       <c r="E13" t="n">
-        <v>95.92339654281133</v>
+        <v>95.9233965428111</v>
       </c>
       <c r="F13" t="n">
-        <v>126.192968832684</v>
+        <v>134.7525646580861</v>
       </c>
       <c r="G13" t="n">
-        <v>126.192968832684</v>
+        <v>144.1055789917423</v>
       </c>
       <c r="H13" t="n">
-        <v>138.3935966661013</v>
+        <v>156.3062068251596</v>
       </c>
       <c r="I13" t="n">
-        <v>151.5559397903531</v>
+        <v>169.4685499494114</v>
       </c>
       <c r="J13" t="n">
-        <v>208.8855097948105</v>
+        <v>169.4685499494114</v>
       </c>
       <c r="K13" t="n">
-        <v>318.8926109685497</v>
+        <v>279.4756511231504</v>
       </c>
       <c r="L13" t="n">
-        <v>318.8926109685497</v>
+        <v>279.4756511231504</v>
       </c>
       <c r="M13" t="n">
-        <v>470.2946957351824</v>
+        <v>279.4756511231504</v>
       </c>
       <c r="N13" t="n">
-        <v>470.2946957351824</v>
+        <v>279.4756511231504</v>
       </c>
       <c r="O13" t="n">
-        <v>470.2946957351824</v>
+        <v>351.8217271348921</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351824</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426672</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633074</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015775</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578855</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U13" t="n">
-        <v>279.612555760413</v>
+        <v>279.6125557604133</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064918</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117121</v>
+        <v>98.68003660117132</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099483</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>592.6299154257777</v>
+        <v>373.1878275815398</v>
       </c>
       <c r="C14" t="n">
-        <v>592.6299154257777</v>
+        <v>373.1878275815398</v>
       </c>
       <c r="D14" t="n">
-        <v>592.6299154257777</v>
+        <v>373.1878275815398</v>
       </c>
       <c r="E14" t="n">
-        <v>592.6299154257777</v>
+        <v>182.7858747338153</v>
       </c>
       <c r="F14" t="n">
-        <v>439.5571809656792</v>
+        <v>182.7858747338153</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1552281179548</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H14" t="n">
-        <v>78.576304425548</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021289</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>267.8825731524722</v>
+        <v>165.6309218926826</v>
       </c>
       <c r="L14" t="n">
-        <v>314.6034156332324</v>
+        <v>212.3517643734427</v>
       </c>
       <c r="M14" t="n">
-        <v>395.4653147201797</v>
+        <v>293.21366346039</v>
       </c>
       <c r="N14" t="n">
-        <v>470.793207855872</v>
+        <v>479.8266174464447</v>
       </c>
       <c r="O14" t="n">
-        <v>505.0138425485398</v>
+        <v>666.4395714324994</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324992</v>
+        <v>666.4395714324994</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9917332769887</v>
@@ -5315,13 +5315,13 @@
         <v>753.9917332769887</v>
       </c>
       <c r="W14" t="n">
-        <v>592.6299154257777</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="X14" t="n">
-        <v>592.6299154257777</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Y14" t="n">
-        <v>592.6299154257777</v>
+        <v>563.5897804292642</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.54436736382059</v>
+        <v>228.8825953283732</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07983466553977</v>
+        <v>219.4180626300922</v>
       </c>
       <c r="D15" t="n">
-        <v>15.07983466553977</v>
+        <v>219.4180626300922</v>
       </c>
       <c r="E15" t="n">
-        <v>15.07983466553977</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="F15" t="n">
-        <v>15.07983466553977</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="G15" t="n">
         <v>15.07983466553977</v>
@@ -5358,13 +5358,13 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142016</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N15" t="n">
         <v>538.6656803998544</v>
@@ -5382,25 +5382,25 @@
         <v>753.9917332769887</v>
       </c>
       <c r="S15" t="n">
-        <v>740.413423007356</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="T15" t="n">
-        <v>703.2188174998586</v>
+        <v>526.3951749217667</v>
       </c>
       <c r="U15" t="n">
-        <v>643.5422464454942</v>
+        <v>466.7186038674023</v>
       </c>
       <c r="V15" t="n">
-        <v>453.1402935977698</v>
+        <v>403.5866273397917</v>
       </c>
       <c r="W15" t="n">
-        <v>363.6894658968166</v>
+        <v>314.1357996388384</v>
       </c>
       <c r="X15" t="n">
-        <v>173.2875130490922</v>
+        <v>274.5755468242901</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.54436736382059</v>
+        <v>228.8825953283732</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.6058647187586</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C16" t="n">
-        <v>15.6058647187586</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>48.24182248209223</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E16" t="n">
-        <v>48.24182248209223</v>
+        <v>51.18723637697416</v>
       </c>
       <c r="F16" t="n">
-        <v>48.24182248209223</v>
+        <v>90.01640449224909</v>
       </c>
       <c r="G16" t="n">
-        <v>57.59483681574852</v>
+        <v>99.36941882590527</v>
       </c>
       <c r="H16" t="n">
-        <v>69.79546464916584</v>
+        <v>111.5700466593225</v>
       </c>
       <c r="I16" t="n">
-        <v>82.95780777341768</v>
+        <v>124.7323897835742</v>
       </c>
       <c r="J16" t="n">
-        <v>82.95780777341768</v>
+        <v>124.7323897835742</v>
       </c>
       <c r="K16" t="n">
-        <v>192.9649089471569</v>
+        <v>165.7463865933948</v>
       </c>
       <c r="L16" t="n">
-        <v>337.501392372997</v>
+        <v>310.2828700192348</v>
       </c>
       <c r="M16" t="n">
-        <v>337.501392372997</v>
+        <v>310.2828700192348</v>
       </c>
       <c r="N16" t="n">
-        <v>497.5132180889457</v>
+        <v>470.2946957351834</v>
       </c>
       <c r="O16" t="n">
-        <v>497.5132180889457</v>
+        <v>470.2946957351834</v>
       </c>
       <c r="P16" t="n">
-        <v>497.5132180889457</v>
+        <v>470.2946957351834</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426672</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633074</v>
+        <v>495.1795934633082</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015775</v>
+        <v>437.3111286015782</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578855</v>
+        <v>391.237093957886</v>
       </c>
       <c r="U16" t="n">
-        <v>279.612555760413</v>
+        <v>279.6125557604135</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064918</v>
+        <v>211.9754335064922</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117121</v>
+        <v>98.68003660117144</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099483</v>
+        <v>54.46671210099494</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961942</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040786</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D17" t="n">
-        <v>369.369783721005</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718618</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940546</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G17" t="n">
         <v>65.15430707116217</v>
@@ -5510,55 +5510,55 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="J17" t="n">
-        <v>113.7474393646515</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="K17" t="n">
-        <v>113.7474393646515</v>
+        <v>131.9645468497108</v>
       </c>
       <c r="L17" t="n">
-        <v>160.4682818454117</v>
+        <v>318.5775008357655</v>
       </c>
       <c r="M17" t="n">
-        <v>241.330180932359</v>
+        <v>399.4393999227127</v>
       </c>
       <c r="N17" t="n">
-        <v>427.9431349184136</v>
+        <v>474.7672930584051</v>
       </c>
       <c r="O17" t="n">
-        <v>462.1637696110814</v>
+        <v>508.9879277510728</v>
       </c>
       <c r="P17" t="n">
-        <v>462.1637696110814</v>
+        <v>508.9879277510728</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110814</v>
+        <v>508.9879277510728</v>
       </c>
       <c r="R17" t="n">
-        <v>563.7042339002528</v>
+        <v>610.5283920402442</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051037</v>
+        <v>679.7597616450951</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369972</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="U17" t="n">
         <v>753.9917332769886</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879305</v>
       </c>
       <c r="W17" t="n">
         <v>689.4655660235037</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122032</v>
+        <v>540.8060308122034</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>505.7654291748649</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="C18" t="n">
-        <v>505.7654291748649</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="D18" t="n">
-        <v>505.7654291748649</v>
+        <v>297.0909277804762</v>
       </c>
       <c r="E18" t="n">
-        <v>505.7654291748649</v>
+        <v>123.5277239018907</v>
       </c>
       <c r="F18" t="n">
-        <v>345.337712892109</v>
+        <v>123.5277239018907</v>
       </c>
       <c r="G18" t="n">
-        <v>195.0906376652133</v>
+        <v>123.5277239018907</v>
       </c>
       <c r="H18" t="n">
-        <v>68.0850572755424</v>
+        <v>123.5277239018907</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068141998</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
         <v>352.0527264137997</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O18" t="n">
         <v>670.3666200188887</v>
@@ -5616,28 +5616,28 @@
         <v>753.9917332769886</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769886</v>
+        <v>617.9111264193344</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9917332769886</v>
+        <v>617.9111264193344</v>
       </c>
       <c r="T18" t="n">
-        <v>753.9917332769886</v>
+        <v>617.9111264193344</v>
       </c>
       <c r="U18" t="n">
-        <v>753.9917332769886</v>
+        <v>617.9111264193344</v>
       </c>
       <c r="V18" t="n">
-        <v>696.1673820225893</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="W18" t="n">
-        <v>696.1673820225893</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="X18" t="n">
-        <v>696.1673820225893</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="Y18" t="n">
-        <v>505.7654291748649</v>
+        <v>427.5091735716101</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961945</v>
       </c>
       <c r="C20" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040789</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718622</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F20" t="n">
-        <v>187.770975794055</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116217</v>
@@ -5747,34 +5747,34 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95335735993307</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95335735993307</v>
+        <v>257.5663113459877</v>
       </c>
       <c r="L20" t="n">
-        <v>160.4682818454118</v>
+        <v>304.2871538267478</v>
       </c>
       <c r="M20" t="n">
-        <v>241.330180932359</v>
+        <v>385.1490529136951</v>
       </c>
       <c r="N20" t="n">
-        <v>427.9431349184138</v>
+        <v>497.1745045232647</v>
       </c>
       <c r="O20" t="n">
-        <v>462.1637696110815</v>
+        <v>531.3951392159324</v>
       </c>
       <c r="P20" t="n">
-        <v>462.1637696110815</v>
+        <v>531.3951392159324</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110815</v>
+        <v>531.3951392159324</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002529</v>
+        <v>632.9356035051038</v>
       </c>
       <c r="S20" t="n">
         <v>632.9356035051038</v>
@@ -5786,7 +5786,7 @@
         <v>753.9917332769887</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879305</v>
       </c>
       <c r="W20" t="n">
         <v>689.4655660235037</v>
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>230.1683764065513</v>
+        <v>354.7391841594718</v>
       </c>
       <c r="C21" t="n">
-        <v>230.1683764065513</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="D21" t="n">
-        <v>230.1683764065513</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="E21" t="n">
-        <v>230.1683764065513</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="F21" t="n">
-        <v>230.1683764065513</v>
+        <v>165.3269098924356</v>
       </c>
       <c r="G21" t="n">
-        <v>230.1683764065513</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H21" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I21" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097942</v>
@@ -5850,31 +5850,31 @@
         <v>753.9917332769887</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596543</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="R21" t="n">
-        <v>610.9722821020001</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="S21" t="n">
-        <v>420.5703292542757</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="T21" t="n">
-        <v>230.1683764065513</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="U21" t="n">
-        <v>230.1683764065513</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="V21" t="n">
-        <v>230.1683764065513</v>
+        <v>723.6769899341314</v>
       </c>
       <c r="W21" t="n">
-        <v>230.1683764065513</v>
+        <v>723.6769899341314</v>
       </c>
       <c r="X21" t="n">
-        <v>230.1683764065513</v>
+        <v>533.2750370864069</v>
       </c>
       <c r="Y21" t="n">
-        <v>230.1683764065513</v>
+        <v>533.2750370864069</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040793</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210057</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718626</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940556</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116215</v>
@@ -5984,37 +5984,37 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>56.79906082959462</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="J23" t="n">
-        <v>56.79906082959462</v>
+        <v>257.5663113459878</v>
       </c>
       <c r="K23" t="n">
-        <v>243.4120148156494</v>
+        <v>257.5663113459878</v>
       </c>
       <c r="L23" t="n">
-        <v>290.1328572964095</v>
+        <v>304.2871538267479</v>
       </c>
       <c r="M23" t="n">
-        <v>370.9947563833568</v>
+        <v>490.9001078128026</v>
       </c>
       <c r="N23" t="n">
-        <v>446.3226495190492</v>
+        <v>603.7155708394788</v>
       </c>
       <c r="O23" t="n">
-        <v>632.9356035051039</v>
+        <v>637.9362055321466</v>
       </c>
       <c r="P23" t="n">
-        <v>632.9356035051039</v>
+        <v>637.9362055321466</v>
       </c>
       <c r="Q23" t="n">
-        <v>632.9356035051039</v>
+        <v>637.9362055321466</v>
       </c>
       <c r="R23" t="n">
-        <v>632.9356035051039</v>
+        <v>637.9362055321466</v>
       </c>
       <c r="S23" t="n">
-        <v>632.9356035051039</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="T23" t="n">
         <v>707.1675751369975</v>
@@ -6023,16 +6023,16 @@
         <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879305</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235039</v>
+        <v>689.465566023504</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530782</v>
+        <v>626.500875753078</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122039</v>
+        <v>540.8060308122037</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.0539275023293</v>
+        <v>453.1126065210747</v>
       </c>
       <c r="C24" t="n">
-        <v>195.641653235293</v>
+        <v>453.1126065210747</v>
       </c>
       <c r="D24" t="n">
-        <v>195.641653235293</v>
+        <v>292.3324902821064</v>
       </c>
       <c r="E24" t="n">
-        <v>195.641653235293</v>
+        <v>292.3324902821064</v>
       </c>
       <c r="F24" t="n">
-        <v>68.08505727554247</v>
+        <v>292.3324902821064</v>
       </c>
       <c r="G24" t="n">
-        <v>68.08505727554247</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="H24" t="n">
-        <v>68.08505727554247</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I24" t="n">
-        <v>68.08505727554247</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553984</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142022</v>
+        <v>53.04316068142014</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O24" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q24" t="n">
         <v>753.9917332769888</v>
@@ -6093,25 +6093,25 @@
         <v>753.9917332769888</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9917332769888</v>
+        <v>631.6484594480098</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9917332769888</v>
+        <v>631.6484594480098</v>
       </c>
       <c r="U24" t="n">
-        <v>563.5897804292644</v>
+        <v>631.6484594480098</v>
       </c>
       <c r="V24" t="n">
-        <v>563.5897804292644</v>
+        <v>631.6484594480098</v>
       </c>
       <c r="W24" t="n">
-        <v>563.5897804292644</v>
+        <v>631.6484594480098</v>
       </c>
       <c r="X24" t="n">
-        <v>563.5897804292644</v>
+        <v>631.6484594480098</v>
       </c>
       <c r="Y24" t="n">
-        <v>563.5897804292644</v>
+        <v>631.6484594480098</v>
       </c>
     </row>
     <row r="25">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.898422489611</v>
+        <v>1020.898422489612</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874108</v>
+        <v>882.7966579874117</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942529</v>
+        <v>757.2538204942538</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350254</v>
+        <v>597.6637583350263</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471339</v>
+        <v>406.0329511471348</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141566</v>
+        <v>198.6052517141574</v>
       </c>
       <c r="H26" t="n">
         <v>63.71974859845024</v>
@@ -6227,16 +6227,16 @@
         <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523994</v>
+        <v>634.0135279523988</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581076</v>
+        <v>926.2253300581069</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O26" t="n">
         <v>1458.47366392399</v>
@@ -6254,22 +6254,22 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>398.8921775607639</v>
+        <v>196.344415697898</v>
       </c>
       <c r="C27" t="n">
-        <v>209.4799032937276</v>
+        <v>196.344415697898</v>
       </c>
       <c r="D27" t="n">
-        <v>209.4799032937276</v>
+        <v>196.344415697898</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514207</v>
+        <v>196.344415697898</v>
       </c>
       <c r="F27" t="n">
         <v>35.91669941514207</v>
@@ -6306,49 +6306,49 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102245</v>
+        <v>73.88002543102243</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593966</v>
+        <v>191.2129445593965</v>
       </c>
       <c r="M27" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634019</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="R27" t="n">
-        <v>657.0400135936413</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="S27" t="n">
-        <v>657.0400135936413</v>
+        <v>748.173401629499</v>
       </c>
       <c r="T27" t="n">
-        <v>655.538828662844</v>
+        <v>531.0310545532462</v>
       </c>
       <c r="U27" t="n">
-        <v>631.5556781851798</v>
+        <v>507.047904075582</v>
       </c>
       <c r="V27" t="n">
-        <v>466.5159478420821</v>
+        <v>263.9681859792161</v>
       </c>
       <c r="W27" t="n">
-        <v>412.7585407178289</v>
+        <v>210.2107788549629</v>
       </c>
       <c r="X27" t="n">
-        <v>408.8917084799808</v>
+        <v>206.3439466171148</v>
       </c>
       <c r="Y27" t="n">
-        <v>398.8921775607639</v>
+        <v>196.344415697898</v>
       </c>
     </row>
     <row r="28">
@@ -6379,22 +6379,22 @@
         <v>35.91669941514207</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514207</v>
+        <v>84.06216404661762</v>
       </c>
       <c r="J28" t="n">
-        <v>91.91670631504746</v>
+        <v>84.06216404661762</v>
       </c>
       <c r="K28" t="n">
-        <v>91.91670631504746</v>
+        <v>91.91670631504749</v>
       </c>
       <c r="L28" t="n">
-        <v>91.91670631504746</v>
+        <v>91.91670631504749</v>
       </c>
       <c r="M28" t="n">
-        <v>91.91670631504746</v>
+        <v>91.91670631504749</v>
       </c>
       <c r="N28" t="n">
-        <v>91.91670631504746</v>
+        <v>91.91670631504749</v>
       </c>
       <c r="O28" t="n">
         <v>266.1625141760094</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.898422489611</v>
+        <v>1020.89842248961</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874113</v>
+        <v>882.7966579874105</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942534</v>
+        <v>757.2538204942526</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350259</v>
+        <v>597.6637583350252</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471346</v>
+        <v>406.0329511471339</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141572</v>
+        <v>198.6052517141566</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845024</v>
+        <v>63.71974859845</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514207</v>
@@ -6464,10 +6464,10 @@
         <v>171.252799658955</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523993</v>
+        <v>634.0135279523989</v>
       </c>
       <c r="M29" t="n">
         <v>926.2253300581074</v>
@@ -6488,7 +6488,7 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883925</v>
+        <v>1781.660986883924</v>
       </c>
       <c r="T29" t="n">
         <v>1772.589137514411</v>
@@ -6506,7 +6506,7 @@
         <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>162.9222798048129</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="C30" t="n">
-        <v>162.9222798048129</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="D30" t="n">
-        <v>162.9222798048129</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="E30" t="n">
-        <v>162.9222798048129</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F30" t="n">
-        <v>162.9222798048129</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
-        <v>162.9222798048129</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
         <v>35.91669941514207</v>
@@ -6543,49 +6543,49 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102245</v>
+        <v>73.88002543102243</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593966</v>
+        <v>191.2129445593965</v>
       </c>
       <c r="M30" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634019</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="T30" t="n">
-        <v>791.6194355204982</v>
+        <v>791.6194355204981</v>
       </c>
       <c r="U30" t="n">
-        <v>767.6362850428339</v>
+        <v>767.6362850428338</v>
       </c>
       <c r="V30" t="n">
-        <v>524.556566946468</v>
+        <v>671.2806886474362</v>
       </c>
       <c r="W30" t="n">
-        <v>470.7991598222148</v>
+        <v>617.5232815231832</v>
       </c>
       <c r="X30" t="n">
-        <v>251.2911654389112</v>
+        <v>398.0152871398795</v>
       </c>
       <c r="Y30" t="n">
-        <v>241.2916345196944</v>
+        <v>388.0157562206627</v>
       </c>
     </row>
     <row r="31">
@@ -6610,58 +6610,58 @@
         <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514207</v>
+        <v>80.25283525602214</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514207</v>
+        <v>80.25283525602214</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514207</v>
+        <v>128.3982998874978</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91669941514207</v>
+        <v>128.3982998874978</v>
       </c>
       <c r="K31" t="n">
-        <v>35.91669941514207</v>
+        <v>128.3982998874978</v>
       </c>
       <c r="L31" t="n">
-        <v>215.4363043482059</v>
+        <v>256.2082727013258</v>
       </c>
       <c r="M31" t="n">
-        <v>215.4363043482059</v>
+        <v>256.2082727013258</v>
       </c>
       <c r="N31" t="n">
-        <v>215.4363043482059</v>
+        <v>256.2082727013258</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760094</v>
+        <v>256.2082727013258</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760094</v>
+        <v>256.2082727013258</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760094</v>
+        <v>256.2082727013258</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.162514176009</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909792</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239872</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032151</v>
+        <v>157.6757382032149</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259938</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737341</v>
+        <v>48.1300601973733</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389708</v>
+        <v>39.61015627389702</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514207</v>
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510279</v>
+        <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806693</v>
+        <v>877.5242945806685</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601015</v>
+        <v>752.8175276601007</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734643</v>
+        <v>594.0635360734634</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581631</v>
+        <v>403.2687994581621</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977753</v>
+        <v>196.6771705977749</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465891</v>
+        <v>62.62773805465899</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>151.9003389533352</v>
+        <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>357.409754515454</v>
+        <v>376.6463603738686</v>
       </c>
       <c r="L32" t="n">
-        <v>616.2999327831708</v>
+        <v>635.5365386415853</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570747</v>
+        <v>928.5677735154891</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579724</v>
+        <v>1216.065002438138</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059348</v>
+        <v>1462.454972917762</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218727</v>
+        <v>1659.683256077141</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338636</v>
+        <v>1783.03797219705</v>
       </c>
       <c r="R32" t="n">
         <v>1783.03797219705</v>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.660759443941</v>
+        <v>225.0730337109773</v>
       </c>
       <c r="C33" t="n">
         <v>35.660759443941</v>
@@ -6780,49 +6780,49 @@
         <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.6240854598214</v>
+        <v>73.62408545982136</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881956</v>
+        <v>190.9570045881954</v>
       </c>
       <c r="M33" t="n">
-        <v>372.633651192201</v>
+        <v>372.6336511922008</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029603</v>
+        <v>577.53862760296</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219948</v>
+        <v>709.2395672219943</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800942</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800942</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800948</v>
+        <v>750.6065564725603</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800948</v>
+        <v>557.0805046341721</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218878</v>
+        <v>556.415390275965</v>
       </c>
       <c r="U33" t="n">
-        <v>560.3332688219</v>
+        <v>533.2683103708908</v>
       </c>
       <c r="V33" t="n">
-        <v>317.2535507255341</v>
+        <v>506.6658249925706</v>
       </c>
       <c r="W33" t="n">
-        <v>47.85498145582544</v>
+        <v>453.7444884409076</v>
       </c>
       <c r="X33" t="n">
-        <v>44.82421979056757</v>
+        <v>450.7137267756497</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.660759443941</v>
+        <v>225.0730337109773</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.98934377257925</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>119.3660703972833</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D34" t="n">
-        <v>119.3660703972833</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E34" t="n">
-        <v>165.9336141879296</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F34" t="n">
-        <v>165.9336141879296</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G34" t="n">
-        <v>211.0891827970053</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H34" t="n">
-        <v>211.0891827970053</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I34" t="n">
-        <v>260.0540801966766</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J34" t="n">
-        <v>260.0540801966766</v>
+        <v>105.778557320967</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0540801966766</v>
+        <v>105.778557320967</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966766</v>
+        <v>105.778557320967</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966766</v>
+        <v>105.778557320967</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966766</v>
+        <v>105.778557320967</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966766</v>
+        <v>105.778557320967</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966766</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966766</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966766</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842369</v>
+        <v>238.7151064842374</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898352</v>
+        <v>229.1705629898356</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416531</v>
+        <v>154.0755159416534</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370222</v>
+        <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099183</v>
+        <v>46.201979080992</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010575</v>
+        <v>38.51814573010584</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6932,40 +6932,40 @@
         <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998706</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="J35" t="n">
-        <v>244.900543598745</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="K35" t="n">
-        <v>244.900543598745</v>
+        <v>309.4319710763154</v>
       </c>
       <c r="L35" t="n">
-        <v>291.6213860795052</v>
+        <v>356.1528135570755</v>
       </c>
       <c r="M35" t="n">
-        <v>549.4775873558336</v>
+        <v>437.0147126440228</v>
       </c>
       <c r="N35" t="n">
-        <v>807.3337886321621</v>
+        <v>512.3426057797151</v>
       </c>
       <c r="O35" t="n">
-        <v>850.5537443902418</v>
+        <v>770.1988070560435</v>
       </c>
       <c r="P35" t="n">
-        <v>850.5537443902418</v>
+        <v>997.7464855192725</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902418</v>
+        <v>997.7464855192725</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9595910354047</v>
+        <v>997.7464855192725</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962471</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>561.8919720605277</v>
+        <v>402.3358663049816</v>
       </c>
       <c r="C36" t="n">
-        <v>561.8919720605277</v>
+        <v>212.9235920379453</v>
       </c>
       <c r="D36" t="n">
-        <v>561.8919720605277</v>
+        <v>212.9235920379453</v>
       </c>
       <c r="E36" t="n">
-        <v>561.8919720605277</v>
+        <v>212.9235920379453</v>
       </c>
       <c r="F36" t="n">
-        <v>561.8919720605277</v>
+        <v>212.9235920379453</v>
       </c>
       <c r="G36" t="n">
-        <v>411.6448968336319</v>
+        <v>62.67651681104948</v>
       </c>
       <c r="H36" t="n">
-        <v>284.639316443961</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I36" t="n">
-        <v>284.639316443961</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J36" t="n">
-        <v>284.639316443961</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>322.6026424598414</v>
+        <v>58.80019076548265</v>
       </c>
       <c r="L36" t="n">
-        <v>439.9355615882156</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
-        <v>621.612208192221</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N36" t="n">
-        <v>826.5171846029804</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O36" t="n">
-        <v>958.2181242220148</v>
+        <v>694.4156725276557</v>
       </c>
       <c r="P36" t="n">
-        <v>1041.843237480115</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="Q36" t="n">
-        <v>1034.90439316278</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="R36" t="n">
-        <v>898.8237863051263</v>
+        <v>641.9601789281014</v>
       </c>
       <c r="S36" t="n">
-        <v>705.2977344667381</v>
+        <v>641.9601789281014</v>
       </c>
       <c r="T36" t="n">
-        <v>705.2977344667381</v>
+        <v>641.9601789281014</v>
       </c>
       <c r="U36" t="n">
-        <v>705.2977344667381</v>
+        <v>402.3358663049816</v>
       </c>
       <c r="V36" t="n">
-        <v>705.2977344667381</v>
+        <v>402.3358663049816</v>
       </c>
       <c r="W36" t="n">
-        <v>705.2977344667381</v>
+        <v>402.3358663049816</v>
       </c>
       <c r="X36" t="n">
-        <v>705.2977344667381</v>
+        <v>402.3358663049816</v>
       </c>
       <c r="Y36" t="n">
-        <v>705.2977344667381</v>
+        <v>402.3358663049816</v>
       </c>
     </row>
     <row r="37">
@@ -7154,13 +7154,13 @@
         <v>544.0833815513523</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756365</v>
+        <v>477.7066225756366</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338512</v>
+        <v>377.2826389338513</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634019</v>
+        <v>244.817910263402</v>
       </c>
       <c r="G38" t="n">
         <v>96.55628934786678</v>
@@ -7169,40 +7169,40 @@
         <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998706</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J38" t="n">
-        <v>51.57576979998706</v>
+        <v>214.1616385483602</v>
       </c>
       <c r="K38" t="n">
-        <v>51.57576979998706</v>
+        <v>214.1616385483602</v>
       </c>
       <c r="L38" t="n">
-        <v>309.4319710763154</v>
+        <v>445.2689358405107</v>
       </c>
       <c r="M38" t="n">
-        <v>390.2938701632628</v>
+        <v>526.130834927458</v>
       </c>
       <c r="N38" t="n">
-        <v>465.6217632989552</v>
+        <v>783.9870362037864</v>
       </c>
       <c r="O38" t="n">
-        <v>723.4779645752836</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="P38" t="n">
-        <v>850.5537443902418</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902418</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9595910354047</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962471</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.639316443961</v>
+        <v>458.5172366489248</v>
       </c>
       <c r="C39" t="n">
-        <v>284.639316443961</v>
+        <v>458.5172366489248</v>
       </c>
       <c r="D39" t="n">
-        <v>284.639316443961</v>
+        <v>458.5172366489248</v>
       </c>
       <c r="E39" t="n">
-        <v>284.639316443961</v>
+        <v>458.5172366489248</v>
       </c>
       <c r="F39" t="n">
-        <v>284.639316443961</v>
+        <v>298.0895203661689</v>
       </c>
       <c r="G39" t="n">
-        <v>284.639316443961</v>
+        <v>147.8424451392731</v>
       </c>
       <c r="H39" t="n">
-        <v>284.639316443961</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I39" t="n">
-        <v>284.639316443961</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J39" t="n">
-        <v>284.639316443961</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
-        <v>322.6026424598414</v>
+        <v>58.80019076548265</v>
       </c>
       <c r="L39" t="n">
-        <v>439.9355615882156</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M39" t="n">
-        <v>621.612208192221</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N39" t="n">
-        <v>826.5171846029804</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O39" t="n">
-        <v>958.2181242220148</v>
+        <v>694.4156725276557</v>
       </c>
       <c r="P39" t="n">
-        <v>1041.843237480115</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="Q39" t="n">
-        <v>1041.843237480115</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="R39" t="n">
-        <v>1041.843237480115</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="S39" t="n">
-        <v>1041.843237480115</v>
+        <v>675.6595837251776</v>
       </c>
       <c r="T39" t="n">
-        <v>1041.843237480115</v>
+        <v>458.5172366489248</v>
       </c>
       <c r="U39" t="n">
-        <v>802.2189248569949</v>
+        <v>458.5172366489248</v>
       </c>
       <c r="V39" t="n">
-        <v>802.2189248569949</v>
+        <v>458.5172366489248</v>
       </c>
       <c r="W39" t="n">
-        <v>539.1271982206023</v>
+        <v>458.5172366489248</v>
       </c>
       <c r="X39" t="n">
-        <v>539.1271982206023</v>
+        <v>458.5172366489248</v>
       </c>
       <c r="Y39" t="n">
-        <v>463.1751693708961</v>
+        <v>458.5172366489248</v>
       </c>
     </row>
     <row r="40">
@@ -7333,31 +7333,31 @@
         <v>20.8368647496023</v>
       </c>
       <c r="K40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T40" t="n">
         <v>56.03780166411087</v>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753165</v>
+        <v>818.4263542753167</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564247</v>
+        <v>708.127638956425</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465751</v>
+        <v>610.3878506465753</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706557</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F41" t="n">
         <v>314.7730796660726</v>
@@ -7412,28 +7412,28 @@
         <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>190.6518442323786</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L41" t="n">
-        <v>475.9723582364601</v>
+        <v>671.66361370604</v>
       </c>
       <c r="M41" t="n">
-        <v>795.4339288467287</v>
+        <v>991.1251843163086</v>
       </c>
       <c r="N41" t="n">
-        <v>1109.361493505742</v>
+        <v>1305.052748975322</v>
       </c>
       <c r="O41" t="n">
-        <v>1143.58212819841</v>
+        <v>1339.27338366799</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901259</v>
+        <v>1339.27338366799</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1339.27338366799</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="S41" t="n">
         <v>1384.940325262768</v>
@@ -7454,7 +7454,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181016</v>
+        <v>952.8480423181019</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>512.3039708722426</v>
+        <v>106.657179734402</v>
       </c>
       <c r="C42" t="n">
-        <v>512.3039708722426</v>
+        <v>106.657179734402</v>
       </c>
       <c r="D42" t="n">
-        <v>512.3039708722426</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E42" t="n">
-        <v>338.7407669936571</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F42" t="n">
-        <v>178.3130507109012</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G42" t="n">
         <v>28.06597548400537</v>
@@ -7491,49 +7491,49 @@
         <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988573</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282599</v>
+        <v>183.3622206282598</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322652</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430246</v>
+        <v>569.9438436430244</v>
       </c>
       <c r="O42" t="n">
-        <v>701.644783262059</v>
+        <v>701.6447832620588</v>
       </c>
       <c r="P42" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.3310522028247</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="R42" t="n">
-        <v>778.3310522028247</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="S42" t="n">
-        <v>584.8050003644365</v>
+        <v>591.7438446817705</v>
       </c>
       <c r="T42" t="n">
-        <v>584.8050003644365</v>
+        <v>591.7438446817705</v>
       </c>
       <c r="U42" t="n">
-        <v>538.2583288131876</v>
+        <v>352.1195320586506</v>
       </c>
       <c r="V42" t="n">
-        <v>538.2583288131876</v>
+        <v>352.1195320586506</v>
       </c>
       <c r="W42" t="n">
-        <v>512.3039708722426</v>
+        <v>326.1651741177056</v>
       </c>
       <c r="X42" t="n">
-        <v>512.3039708722426</v>
+        <v>106.657179734402</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.3039708722426</v>
+        <v>106.657179734402</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="M43" t="n">
-        <v>46.96538615316652</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="N43" t="n">
-        <v>46.96538615316652</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="O43" t="n">
-        <v>46.96538615316652</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="P43" t="n">
-        <v>46.96538615316652</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.92961358145159</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1336235606951</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1336235606951</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323083</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931781</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W43" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.96538615316652</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753171</v>
+        <v>818.426354275317</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564255</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
         <v>610.3878506465755</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706558</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660726</v>
+        <v>314.7730796660725</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
@@ -7646,31 +7646,31 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>149.3266338957576</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>149.3266338957576</v>
+        <v>236.5580478456852</v>
       </c>
       <c r="L44" t="n">
-        <v>434.6471478998391</v>
+        <v>283.2788903264453</v>
       </c>
       <c r="M44" t="n">
-        <v>754.1087185101077</v>
+        <v>602.7404609367138</v>
       </c>
       <c r="N44" t="n">
-        <v>829.4366116458001</v>
+        <v>916.6680255957274</v>
       </c>
       <c r="O44" t="n">
-        <v>1102.256917861789</v>
+        <v>1189.488331811716</v>
       </c>
       <c r="P44" t="n">
-        <v>1325.915536757532</v>
+        <v>1189.488331811716</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757532</v>
+        <v>1339.27338366799</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.582478352311</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="S44" t="n">
         <v>1384.940325262768</v>
@@ -7682,7 +7682,7 @@
         <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
         <v>1215.523540582955</v>
@@ -7691,7 +7691,7 @@
         <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181022</v>
+        <v>952.8480423181021</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>575.8422344943177</v>
+        <v>354.3328469516405</v>
       </c>
       <c r="C45" t="n">
-        <v>575.8422344943177</v>
+        <v>354.3328469516405</v>
       </c>
       <c r="D45" t="n">
-        <v>415.0621182553494</v>
+        <v>354.3328469516405</v>
       </c>
       <c r="E45" t="n">
-        <v>241.4989143767639</v>
+        <v>180.769643073055</v>
       </c>
       <c r="F45" t="n">
-        <v>81.07119809400798</v>
+        <v>180.769643073055</v>
       </c>
       <c r="G45" t="n">
-        <v>81.07119809400798</v>
+        <v>30.52256784615921</v>
       </c>
       <c r="H45" t="n">
-        <v>81.07119809400798</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I45" t="n">
-        <v>81.07119809400798</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J45" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988573</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3622206282599</v>
+        <v>183.3622206282598</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322652</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430246</v>
+        <v>569.9438436430244</v>
       </c>
       <c r="O45" t="n">
-        <v>701.644783262059</v>
+        <v>701.6447832620588</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="R45" t="n">
-        <v>649.1892896625047</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="S45" t="n">
-        <v>649.1892896625047</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="T45" t="n">
-        <v>649.1892896625047</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="U45" t="n">
-        <v>601.7965924352627</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="V45" t="n">
-        <v>601.7965924352627</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="W45" t="n">
-        <v>575.8422344943177</v>
+        <v>752.3766942618793</v>
       </c>
       <c r="X45" t="n">
-        <v>575.8422344943177</v>
+        <v>532.8686998785756</v>
       </c>
       <c r="Y45" t="n">
-        <v>575.8422344943177</v>
+        <v>532.8686998785756</v>
       </c>
     </row>
     <row r="46">
@@ -7810,37 +7810,37 @@
         <v>28.06597548400537</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400537</v>
+        <v>130.133623560695</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06597548400537</v>
+        <v>130.133623560695</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06597548400537</v>
+        <v>130.133623560695</v>
       </c>
       <c r="O46" t="n">
-        <v>124.6176159598926</v>
+        <v>130.133623560695</v>
       </c>
       <c r="P46" t="n">
-        <v>124.6176159598926</v>
+        <v>130.133623560695</v>
       </c>
       <c r="Q46" t="n">
-        <v>124.6176159598926</v>
+        <v>130.133623560695</v>
       </c>
       <c r="R46" t="n">
-        <v>124.6176159598926</v>
+        <v>130.133623560695</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323083</v>
+        <v>82.00555512323078</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931781</v>
+        <v>77.86490262931778</v>
       </c>
       <c r="W46" t="n">
         <v>28.06597548400537</v>
@@ -8532,16 +8532,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>171.2365425770137</v>
       </c>
       <c r="L9" t="n">
-        <v>172.23559297146</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4735084131581</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.4361383816801</v>
       </c>
       <c r="O9" t="n">
         <v>173.9674182222222</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247654</v>
+        <v>153.4683930914312</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0572332281109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891594</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>102.1080802982491</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869456</v>
+        <v>36.55305216769844</v>
       </c>
       <c r="G11" t="n">
-        <v>240.6899088095806</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240813</v>
+        <v>62.86150506240821</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929888</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538033</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.3176172467514</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958184</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560841</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613479</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247654</v>
+        <v>7.441042905518344</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0572332281109</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891594</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085682</v>
+        <v>4.832714589321171</v>
       </c>
       <c r="F14" t="n">
-        <v>73.50897837144811</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
-        <v>52.19197549033345</v>
+        <v>74.66092914198794</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240825</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929892</v>
+        <v>16.733281229299</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538026</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675134</v>
+        <v>44.31761724675145</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958184</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560841</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416382</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.137303265382</v>
+        <v>15.63936994613491</v>
       </c>
     </row>
     <row r="15">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2.629008122312371e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>330915.4933946811</v>
       </c>
       <c r="E2" t="n">
-        <v>284900.785780925</v>
+        <v>284900.7857809248</v>
       </c>
       <c r="F2" t="n">
         <v>284900.785780925</v>
@@ -26335,10 +26335,10 @@
         <v>331394.455821951</v>
       </c>
       <c r="J2" t="n">
-        <v>331394.4558219508</v>
+        <v>331394.4558219507</v>
       </c>
       <c r="K2" t="n">
-        <v>331394.4558219508</v>
+        <v>331394.4558219507</v>
       </c>
       <c r="L2" t="n">
         <v>331394.455821951</v>
@@ -26350,10 +26350,10 @@
         <v>331394.4558219509</v>
       </c>
       <c r="O2" t="n">
-        <v>331394.4558219511</v>
+        <v>331394.4558219509</v>
       </c>
       <c r="P2" t="n">
-        <v>331394.4558219512</v>
+        <v>331394.455821951</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913321</v>
+        <v>95439.52541913329</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262469</v>
+        <v>96101.69331262466</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232272</v>
+        <v>46197.3662923228</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924384</v>
+        <v>72254.9148592438</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>419657.1292804553</v>
       </c>
       <c r="D4" t="n">
-        <v>419547.2774058439</v>
+        <v>419547.2774058438</v>
       </c>
       <c r="E4" t="n">
-        <v>307823.2566717784</v>
+        <v>307823.2566717783</v>
       </c>
       <c r="F4" t="n">
-        <v>307823.2566717784</v>
+        <v>307823.2566717783</v>
       </c>
       <c r="G4" t="n">
         <v>378431.1247150002</v>
@@ -26454,7 +26454,7 @@
         <v>378433.7657281701</v>
       </c>
       <c r="O4" t="n">
-        <v>378820.8283918877</v>
+        <v>378820.8283918878</v>
       </c>
       <c r="P4" t="n">
         <v>378820.8283918878</v>
@@ -26476,10 +26476,10 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.9569377478</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.9569377478</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="G5" t="n">
         <v>38672.33876582418</v>
@@ -26494,10 +26494,10 @@
         <v>47449.6772201635</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="L5" t="n">
-        <v>47324.74758284811</v>
+        <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
         <v>40913.2955986873</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122560.231089283</v>
+        <v>-122564.6974734882</v>
       </c>
       <c r="C6" t="n">
-        <v>-122560.231089283</v>
+        <v>-122564.6974734882</v>
       </c>
       <c r="D6" t="n">
-        <v>-123447.681304953</v>
+        <v>-123450.8743878015</v>
       </c>
       <c r="E6" t="n">
-        <v>-330691.5430073154</v>
+        <v>-331001.5008075889</v>
       </c>
       <c r="F6" t="n">
-        <v>-51565.42782860118</v>
+        <v>-51875.38562887456</v>
       </c>
       <c r="G6" t="n">
-        <v>-181148.5330780066</v>
+        <v>-181148.5330780067</v>
       </c>
       <c r="H6" t="n">
         <v>-85709.00765887336</v>
       </c>
       <c r="I6" t="n">
-        <v>-85709.00765887336</v>
+        <v>-85709.00765887331</v>
       </c>
       <c r="J6" t="n">
-        <v>-238809.9974739592</v>
+        <v>-238809.9974739593</v>
       </c>
       <c r="K6" t="n">
-        <v>-95313.71446707989</v>
+        <v>-95313.71446708002</v>
       </c>
       <c r="L6" t="n">
-        <v>-191275.6881750104</v>
+        <v>-191275.6881750103</v>
       </c>
       <c r="M6" t="n">
-        <v>-134149.9717972292</v>
+        <v>-134149.9717972293</v>
       </c>
       <c r="N6" t="n">
-        <v>-87952.60550490649</v>
+        <v>-87952.60550490655</v>
       </c>
       <c r="O6" t="n">
-        <v>-163478.4152580537</v>
+        <v>-163478.4152580539</v>
       </c>
       <c r="P6" t="n">
-        <v>-91223.50039880985</v>
+        <v>-91223.50039880996</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269844</v>
@@ -26713,7 +26713,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758394</v>
       </c>
     </row>
     <row r="4">
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739165</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008446</v>
+        <v>94.1853437500844</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407809</v>
+        <v>120.1271166407808</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540341</v>
+        <v>57.74670786540349</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929178</v>
+        <v>63.13594470929172</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739165</v>
+        <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008446</v>
+        <v>94.1853437500844</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.0872403778333</v>
+        <v>374.2171558310243</v>
       </c>
       <c r="C8" t="n">
         <v>350.2054973811788</v>
@@ -27892,7 +27892,7 @@
         <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>73.70860737949914</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
         <v>133.6328276992101</v>
@@ -27935,7 +27935,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>155.9730654365651</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
@@ -27944,7 +27944,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>145.7629687550784</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
@@ -28111,28 +28111,28 @@
         <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530679</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K11" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>31.06659347417002</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>48.30769608567569</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530679</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R11" t="n">
         <v>178.1482641530679</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>8.887243048539858</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28181,13 +28181,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439873</v>
+        <v>92.26353583206017</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28211,13 +28211,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530679</v>
+        <v>3.092858000757129</v>
       </c>
       <c r="T12" t="n">
         <v>178.1482641530679</v>
@@ -28257,10 +28257,10 @@
         <v>178.1482641530679</v>
       </c>
       <c r="F13" t="n">
-        <v>169.5022077637726</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H13" t="n">
         <v>178.1482641530679</v>
@@ -28269,25 +28269,25 @@
         <v>178.1482641530679</v>
       </c>
       <c r="J13" t="n">
-        <v>178.1482641530679</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K13" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="L13" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M13" t="n">
+        <v>25.21686539889345</v>
+      </c>
+      <c r="N13" t="n">
+        <v>16.52015736928135</v>
+      </c>
+      <c r="O13" t="n">
+        <v>110.5557284540815</v>
+      </c>
+      <c r="P13" t="n">
         <v>178.1482641530679</v>
-      </c>
-      <c r="N13" t="n">
-        <v>16.52015736928134</v>
-      </c>
-      <c r="O13" t="n">
-        <v>37.47888399777679</v>
-      </c>
-      <c r="P13" t="n">
-        <v>58.47859890024887</v>
       </c>
       <c r="Q13" t="n">
         <v>178.1482641530679</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
-        <v>160.7168484597791</v>
+        <v>57.43235223776953</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530679</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="15">
@@ -28406,28 +28406,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>118.2773306295196</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530679</v>
+        <v>3.092858000757129</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>52.15098759615506</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>28.81498112022342</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
-        <v>76.12857190560675</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.1482641530679</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.1482641530679</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J16" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
-        <v>178.1482641530679</v>
+        <v>108.4582597450693</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="O16" t="n">
-        <v>37.47888399777679</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.6548072300747</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="17">
@@ -28585,28 +28585,28 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>120.0079644239056</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300958</v>
+        <v>68.35465627738961</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>112.4091523741033</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108875</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742195</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R17" t="n">
         <v>297.4476709269844</v>
@@ -28618,7 +28618,7 @@
         <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269844</v>
@@ -28646,25 +28646,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>30.05825174335601</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5907913200043</v>
@@ -28700,7 +28700,7 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
-        <v>183.4028131735469</v>
+        <v>52.15098759615509</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.88635281477846</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28749,19 +28749,19 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777679</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28770,7 +28770,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S19" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T19" t="n">
         <v>223.761558450323</v>
@@ -28822,34 +28822,34 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459405</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300958</v>
+        <v>195.2251254655482</v>
       </c>
       <c r="L20" t="n">
-        <v>43.22634545931167</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4091523741034</v>
+        <v>37.06824088270434</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108875</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71173703742195</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R20" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
         <v>297.4476709269844</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>72.63644899006272</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,28 +28922,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>3.092858000757127</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>26.4729902862431</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>210.6373250059735</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022342</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28986,19 +28986,19 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777679</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29007,7 +29007,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S22" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T22" t="n">
         <v>223.761558450323</v>
@@ -29056,40 +29056,40 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>283.1504017044203</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459405</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2251254655482</v>
+        <v>6.727192146300979</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>37.866232213115</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108875</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742195</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8815453823668</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U23" t="n">
         <v>297.4476709269844</v>
@@ -29117,28 +29117,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>32.54240911977534</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>70.47095022931509</v>
       </c>
       <c r="T24" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>48.7301361776414</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29223,19 +29223,19 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777679</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29244,7 +29244,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S25" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T25" t="n">
         <v>223.761558450323</v>
@@ -29302,7 +29302,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4847505240013</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M26" t="n">
         <v>213.484750524001</v>
@@ -29311,7 +29311,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240016</v>
       </c>
       <c r="P26" t="n">
         <v>213.484750524001</v>
@@ -29354,16 +29354,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29372,10 +29372,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,22 +29396,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>147.093044686426</v>
       </c>
       <c r="T27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>77.25958787573555</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>213.484750524001</v>
@@ -29451,28 +29451,28 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I28" t="n">
-        <v>164.852968067965</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J28" t="n">
-        <v>176.8052711181669</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918997</v>
+        <v>74.96386121841206</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O28" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.16483322993308</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29597,7 +29597,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29606,13 +29606,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161034</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
@@ -29648,7 +29648,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>145.2568804839586</v>
       </c>
       <c r="W30" t="n">
         <v>213.484750524001</v>
@@ -29682,13 +29682,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7007749271525</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H31" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
-        <v>164.852968067965</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J31" t="n">
         <v>120.239607582909</v>
@@ -29697,25 +29697,25 @@
         <v>67.02998013918997</v>
       </c>
       <c r="L31" t="n">
-        <v>213.484750524001</v>
+        <v>161.2527988884092</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O31" t="n">
-        <v>88.71747978343683</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024887</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R31" t="n">
-        <v>203.4299611556341</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="J32" t="n">
-        <v>194.1953356407498</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908653</v>
+        <v>213.6262506492496</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908653</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29846,10 +29846,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390257</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890776</v>
+        <v>92.88425802161913</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
-        <v>7.680435169900761</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,49 +29904,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.3124603908653</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3124603908653</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>188.7140642330799</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>214.3124603908653</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I34" t="n">
-        <v>214.3124603908653</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2396075829089</v>
+        <v>191.0656660445513</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777676</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024885</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
@@ -29955,25 +29955,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908653</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="35">
@@ -30007,40 +30007,40 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146300908</v>
+        <v>267.1880015163297</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7821234236172</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3720284248848</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.090223298395919</v>
+        <v>225.8945117006674</v>
       </c>
       <c r="P35" t="n">
-        <v>15.0919723510887</v>
+        <v>244.9381122129362</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71173703742193</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.77878961551741</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30080,13 +30080,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>84.31426904494143</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390257</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,19 +30107,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -30165,25 +30165,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777676</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30192,7 +30192,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S37" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T37" t="n">
         <v>223.761558450323</v>
@@ -30241,43 +30241,43 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
+        <v>241.009769215476</v>
+      </c>
+      <c r="J38" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="J38" t="n">
-        <v>76.78161896459402</v>
-      </c>
       <c r="K38" t="n">
-        <v>6.727192146300908</v>
+        <v>6.727192146300979</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874426</v>
+        <v>186.2489442539297</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3720284248849</v>
       </c>
       <c r="O38" t="n">
         <v>225.8945117006673</v>
       </c>
       <c r="P38" t="n">
-        <v>143.4513459015515</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71173703742193</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30311,19 +30311,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390257</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>90.23340128003215</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243774206982891</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>148.1917775728165</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30402,25 +30402,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918996</v>
+        <v>102.586482073037</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777676</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30429,10 +30429,10 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T40" t="n">
-        <v>259.3180603841701</v>
+        <v>223.761558450323</v>
       </c>
       <c r="U40" t="n">
         <v>272.0591682562687</v>
@@ -30484,10 +30484,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
-        <v>6.727192146300908</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
-        <v>241.009769215476</v>
+        <v>204.3951269640586</v>
       </c>
       <c r="M41" t="n">
         <v>241.009769215476</v>
@@ -30499,16 +30499,16 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>47.9691003337641</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T41" t="n">
         <v>241.009769215476</v>
@@ -30542,25 +30542,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>81.36702286868586</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390257</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>191.1468646611522</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -30602,7 +30602,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30639,37 +30639,37 @@
         <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889342</v>
+        <v>111.067289054639</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777676</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q43" t="n">
-        <v>173.6454985175125</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
+        <v>203.4299611556341</v>
+      </c>
+      <c r="S43" t="n">
+        <v>235.4380443661806</v>
+      </c>
+      <c r="T43" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="S43" t="n">
-        <v>235.4380443661805</v>
-      </c>
-      <c r="T43" t="n">
-        <v>223.761558450323</v>
       </c>
       <c r="U43" t="n">
         <v>241.009769215476</v>
@@ -30681,7 +30681,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X43" t="n">
-        <v>241.009769215476</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30718,34 +30718,34 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>199.2671325118185</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>6.727192146300915</v>
+        <v>53.09709478600463</v>
       </c>
       <c r="L44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="P44" t="n">
+        <v>15.09197235108877</v>
+      </c>
+      <c r="Q44" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>89.71173703742193</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="S44" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T44" t="n">
         <v>241.009769215476</v>
@@ -30773,31 +30773,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7355245857741</v>
+        <v>123.3034981472418</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
         <v>191.5907913200043</v>
@@ -30830,7 +30830,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>190.309299241919</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -30839,7 +30839,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30876,25 +30876,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817886</v>
+        <v>135.2504506690775</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O46" t="n">
-        <v>135.00579356938</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -30903,7 +30903,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>241.009769215476</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217852</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R12" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H13" t="n">
         <v>1.622059239773296</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542653</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217852</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R15" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H16" t="n">
         <v>1.622059239773296</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542653</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217852</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R18" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H19" t="n">
         <v>1.622059239773296</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542653</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217852</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R21" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H22" t="n">
         <v>1.622059239773296</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542653</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217852</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R24" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H25" t="n">
         <v>1.622059239773296</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542653</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217852</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R27" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H28" t="n">
         <v>1.622059239773296</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542653</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217852</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401901</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178818</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705387</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>0.2176139204650132</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729623</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000172</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447579</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133251</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134023</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795502</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R30" t="n">
         <v>13.51115200922249</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H31" t="n">
         <v>1.622059239773296</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600457</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786393</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542653</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629249</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217855</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4163207803287</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P32" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H33" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I33" t="n">
-        <v>7.49240910372963</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R33" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935663</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L34" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542661</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217855</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4163207803287</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P35" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H36" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I36" t="n">
-        <v>7.49240910372963</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R36" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935663</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L37" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542661</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217855</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4163207803287</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P38" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H39" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I39" t="n">
-        <v>7.49240910372963</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R39" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935663</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L40" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542661</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217855</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4163207803287</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P41" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H42" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49240910372963</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R42" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935663</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L43" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542661</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217854</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L44" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521939</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H45" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R45" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935663</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P46" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542661</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35146,7 +35146,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.069987028295762</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884739</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>171.421072006767</v>
+        <v>171.4210720067669</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258599</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641141</v>
+        <v>112.7452794205814</v>
       </c>
       <c r="N11" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P11" t="n">
-        <v>33.21572373458694</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564596</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35504,7 +35504,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,31 +35541,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5313434880998216</v>
+        <v>0.5313434880997647</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109556</v>
+        <v>11.69108318109551</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235721</v>
+        <v>32.96561390235715</v>
       </c>
       <c r="E13" t="n">
-        <v>36.47212294084292</v>
+        <v>36.47212294084287</v>
       </c>
       <c r="F13" t="n">
-        <v>30.57532554532591</v>
+        <v>39.22138193462121</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.447489225915389</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32386649840133</v>
+        <v>12.32386649840128</v>
       </c>
       <c r="I13" t="n">
-        <v>13.29529608510287</v>
+        <v>13.29529608510282</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90865657015896</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>111.1182840138779</v>
@@ -35574,19 +35574,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541745</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>73.07684445630467</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937869</v>
+        <v>50.93127818937863</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884739</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K14" t="n">
-        <v>153.9896563134781</v>
+        <v>50.70516009146855</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258599</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514381</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936138</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0562918019792</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564596</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35741,7 +35741,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,43 +35778,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880998216</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235721</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.47212294084281</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.22138193462115</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915445</v>
+        <v>9.447489225915332</v>
       </c>
       <c r="H16" t="n">
-        <v>12.32386649840133</v>
+        <v>12.32386649840122</v>
       </c>
       <c r="I16" t="n">
-        <v>13.29529608510287</v>
+        <v>13.29529608510276</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138779</v>
+        <v>41.42827960587933</v>
       </c>
       <c r="L16" t="n">
-        <v>145.996447904889</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837866</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.43782126638543</v>
+        <v>50.93127818937857</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>56.43790171150837</v>
       </c>
       <c r="J17" t="n">
-        <v>43.2263454593116</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>61.62746413108862</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258599</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N17" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="L20" t="n">
-        <v>90.41911564189766</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N20" t="n">
-        <v>188.4979333192472</v>
+        <v>113.1570218278481</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,7 +36145,7 @@
         <v>102.5661255446176</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>74.98178952716516</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36352,25 +36352,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.14063248894429</v>
+        <v>56.43790171150837</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>47.19277018258596</v>
+      </c>
+      <c r="M23" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="L23" t="n">
-        <v>47.19277018258599</v>
-      </c>
-      <c r="M23" t="n">
-        <v>81.67868594641141</v>
-      </c>
       <c r="N23" t="n">
-        <v>76.08878094514381</v>
+        <v>113.9550131582588</v>
       </c>
       <c r="O23" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,10 +36382,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>47.29712943433466</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36452,7 +36452,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,16 +36598,16 @@
         <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
-        <v>260.6775207065873</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
         <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.051048193363</v>
       </c>
       <c r="P26" t="n">
         <v>198.3927781729122</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163412</v>
+        <v>18.60320514163411</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36747,13 +36747,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.63178245603591</v>
       </c>
       <c r="J28" t="n">
-        <v>56.56566353525798</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>7.933881079222088</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.0058665262242</v>
+        <v>176.0058665262241</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
         <v>206.7575583777</v>
@@ -36844,7 +36844,7 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163412</v>
+        <v>18.60320514163416</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36926,7 +36926,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.78397559684855</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.63178245603597</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3329342758221</v>
+        <v>129.1009826402303</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>51.23859578566005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.0547893683669</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.4137166761558</v>
+        <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445644</v>
+        <v>206.8990585029487</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734513</v>
+        <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372767</v>
+        <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360092</v>
+        <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602267</v>
+        <v>248.8787580602266</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397766</v>
+        <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534434</v>
+        <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
-        <v>19.4309150084985</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,31 +37200,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.69553972589722</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.85527941889296</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>47.03792302085488</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>45.61168546371285</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.45949232290027</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>70.82605846164239</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.8338614906164</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079269</v>
+        <v>31.04939904079267</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258605</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M35" t="n">
+        <v>81.67868594641136</v>
+      </c>
+      <c r="N35" t="n">
+        <v>76.08878094514378</v>
+      </c>
+      <c r="O35" t="n">
         <v>260.4608093700287</v>
       </c>
-      <c r="N35" t="n">
-        <v>260.4608093700287</v>
-      </c>
-      <c r="O35" t="n">
-        <v>43.65652096775735</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>229.8461398618475</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782055</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079269</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>233.4417144365156</v>
+      </c>
+      <c r="M38" t="n">
+        <v>81.67868594641136</v>
+      </c>
+      <c r="N38" t="n">
         <v>260.4608093700287</v>
-      </c>
-      <c r="M38" t="n">
-        <v>81.67868594641146</v>
-      </c>
-      <c r="N38" t="n">
-        <v>76.08878094514388</v>
       </c>
       <c r="O38" t="n">
         <v>260.4608093700287</v>
       </c>
       <c r="P38" t="n">
-        <v>128.3593735504628</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782055</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2025393980621</v>
+        <v>251.5878971466446</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618875</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0985501606199</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936143</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P41" t="n">
-        <v>32.8771279826754</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>46.1282238331092</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702784</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565676</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>85.85042365574557</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37956,16 +37956,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.4285125538233</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.5798080598419</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.24821076515303</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>19.09031380723349</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>122.4855135472245</v>
+        <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>46.36990263970365</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2025393980621</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618875</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514387</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
         <v>275.5760668848374</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643873</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
         <v>46.1282238331092</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702784</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565676</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.0986344208986</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.52690957160324</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.571724849295453</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
